--- a/FLow calcualtion Jhimruk_andhi/jhimruk PREVIOUS CAR with Station 339_5.xlsx
+++ b/FLow calcualtion Jhimruk_andhi/jhimruk PREVIOUS CAR with Station 339_5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Project:</t>
   </si>
@@ -95,6 +95,42 @@
   </si>
   <si>
     <t>Discharge (m3/s)</t>
+  </si>
+  <si>
+    <t>Jestha</t>
+  </si>
+  <si>
+    <t>Baishakh</t>
+  </si>
+  <si>
+    <t>Ashar</t>
+  </si>
+  <si>
+    <t>Shrawan</t>
+  </si>
+  <si>
+    <t>Bhadra</t>
+  </si>
+  <si>
+    <t>Ashwin</t>
+  </si>
+  <si>
+    <t>Kartik</t>
+  </si>
+  <si>
+    <t>Mangsir</t>
+  </si>
+  <si>
+    <t>Poush</t>
+  </si>
+  <si>
+    <t>Magh</t>
+  </si>
+  <si>
+    <t>Falgun</t>
+  </si>
+  <si>
+    <t>Chaitra</t>
   </si>
 </sst>
 </file>
@@ -182,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -199,6 +235,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1271,16 +1308,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504264</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>580464</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>38940</xdr:rowOff>
+      <xdr:rowOff>10365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>380440</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>20170</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>456640</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>210670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2599,8 +2636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -4072,6 +4109,13 @@
         <v>5.7795772937651195</v>
       </c>
       <c r="C40" s="13"/>
+      <c r="D40" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="11">
+        <f>AVERAGE(B43:B44)</f>
+        <v>3.7593861077161286</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
@@ -4082,6 +4126,13 @@
         <v>4.8591876987242371</v>
       </c>
       <c r="C41" s="13"/>
+      <c r="D41" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="11">
+        <f>AVERAGE(B44:B45)</f>
+        <v>10.60169515751474</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
@@ -4092,6 +4143,13 @@
         <v>4.4203073698453741</v>
       </c>
       <c r="C42" s="13"/>
+      <c r="D42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="11">
+        <f>AVERAGE(B45:B46)</f>
+        <v>39.790421822881925</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
@@ -4102,6 +4160,13 @@
         <v>3.535618618655441</v>
       </c>
       <c r="C43" s="13"/>
+      <c r="D43" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="11">
+        <f>AVERAGE(B46:B47)</f>
+        <v>73.806980374419453</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
@@ -4112,6 +4177,13 @@
         <v>3.9831535967768166</v>
       </c>
       <c r="C44" s="13"/>
+      <c r="D44" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="11">
+        <f>AVERAGE(B47:B48)</f>
+        <v>77.177728853684854</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
@@ -4122,6 +4194,13 @@
         <v>17.220236718252664</v>
       </c>
       <c r="C45" s="13"/>
+      <c r="D45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="11">
+        <f>AVERAGE(B48:B49)</f>
+        <v>48.851510061196258</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
@@ -4132,6 +4211,13 @@
         <v>62.360606927511185</v>
       </c>
       <c r="C46" s="13"/>
+      <c r="D46" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="11">
+        <f>AVERAGE(B49:B50)</f>
+        <v>19.927068927279304</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
@@ -4142,6 +4228,13 @@
         <v>85.253353821327735</v>
       </c>
       <c r="C47" s="13"/>
+      <c r="D47" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="11">
+        <f>AVERAGE(B50:B51)</f>
+        <v>9.0530812853562175</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
@@ -4152,8 +4245,15 @@
         <v>69.102103886041974</v>
       </c>
       <c r="C48" s="13"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D48" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="11">
+        <f>AVERAGE(B51,B40)</f>
+        <v>6.3162591231347438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>18</v>
       </c>
@@ -4162,8 +4262,15 @@
         <v>28.600916236350542</v>
       </c>
       <c r="C49" s="13"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D49" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="11">
+        <f>AVERAGE(B40:B41)</f>
+        <v>5.3193824962446783</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>19</v>
       </c>
@@ -4172,8 +4279,15 @@
         <v>11.253221618208068</v>
       </c>
       <c r="C50" s="13"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D50" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="11">
+        <f>AVERAGE(B41:B42)</f>
+        <v>4.6397475342848056</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>20</v>
       </c>
@@ -4182,6 +4296,13 @@
         <v>6.8529409525043681</v>
       </c>
       <c r="C51" s="13"/>
+      <c r="D51" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="11">
+        <f>AVERAGE(B42:B43)</f>
+        <v>3.9779629942504076</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
